--- a/AZ204-CertMemo.xlsx
+++ b/AZ204-CertMemo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuojieLi\Desktop\Cloud\AZURE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E5BB20-0D67-4308-8EFC-B8AFD60CAFA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA9787C-924F-47E7-9406-E5D9414E5465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="24983" windowHeight="14889" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="24983" windowHeight="14889" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="创建无服务器应用程序" sheetId="1" r:id="rId1"/>
+    <sheet name="将服务连接在一起" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t xml:space="preserve">Azure Functions 支持创建事件驱动的、按需计算的系统，这些系统可由各种外部事件触发。 </t>
     <phoneticPr fontId="2"/>
@@ -311,6 +312,749 @@
   </si>
   <si>
     <t>处理长时间运行的工作流时，我们需要考虑一些情况。 例如，如果任务未在可接受的时间段内完成，会发生什么？ 如何检查任务状态？ 借助超时和升级路径，可以解决这些问题。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Azure Functions Core Tools </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>创建新函数项目和函数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>在本地运行和测试函数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>将函数发布到 Azure</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Azure Functions Core Tools 是一组命令行工具，可用于在本地计算机上开发和测试 Azure Functions。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>在本地运行函数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>函数不是可以独立运行的程序：它们必须由函数主机托管。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Core Tools 通过创建所需的文件和文件夹并支持在自己的计算机上运行函数，提供了一种在本地开发函数的方法。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用 func start 启动函数运行时</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>运行 func init 以将 loan-wizard 目录初始化为函数项目文件夹</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>运行 func new 以启动函数创建向导</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>func start &amp;&gt; ~/output.txt &amp;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pkill func</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用 Core Tools 向Azure发布函数时，请注意以下几点：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Core Tools 不会在发布过程中验证或测试函数代码。 在发布之前，请确保使用 func start 进行一些测试！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>发布时，将停止并删除目标应用中已存在的任何函数，然后再部署项目内容。 不能通过将多个项目中的函数按顺序发布将其合并到一个应用中，应用中所需的所有函数都必须在一个项目中。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>发布到 Azure 不会在本地项目与目标函数应用之间创建任何类型的关系。 你可以将一个函数项目发布到多个函数应用。 还可以在处理代码时，反复将项目重新发布到同一应用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>发布后显示的调用 URL 可以在查询字符串中包含 code 参数，如上面的屏幕截图中所示。 默认情况下，Core Tools 创建的 HTTP 函数配置了函数的授权级别，这意味着它们要求调用者在请求标头或查询字符串中提供密钥。 为方便起见，Core Tools 会将密钥包含在显示的 URL 的查询字符串中。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>func azure functionapp publish "$FUNCTIONAPP"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>发布到azure</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Azure Functions 是 Microsoft Azure 提供的完全托管的 PaaS 服务，用于实现无服务器体系结构。 Azure Functions 是一种完全可扩展、灵活、可靠且安全的服务。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">将 Webhook 用于 Azure Functions 以监视 GitHub 事件 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>什么是消息？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>什么是事件？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>对于每个通信，请考虑以下问题：发送组件是否期望目标组件以特定方式处理通信？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>如果答案是肯定的，请选择使用消息。 如果答案是否定的，可以使用事件。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>什么是 Azure 队列存储？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>队列存储是一项使用 Azure 存储来存储大量消息的服务，可通过使用简单的基于 REST 的接口从世界上任何地方安全地访问这些消息。 队列可以包含数百万条消息，仅受拥有这些消息的存储帐户容量的限制。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>什么是 Azure 服务总线队列？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">服务总线是一个适用于企业应用程序的消息中转站系统。 这些应用通常使用多种通信协议，具有不同的数据协定以及更高的安全性要求，并且可能同时包括云和本地服务。 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>服务总线构建在专用的消息基础结构之上，此基础结构是专门针对这些方案而设计的。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>什么是 Azure 服务总线主题？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Azure 服务总线主题类似于队列，但可以有多个订阅者。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>如果为以下情况，请选择服务总线主题：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>需要多个接收方来处理每条消息</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>如果为以下情况，请选择服务总线队列：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>需要“至多一次”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传递</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>需要 FIFO 保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>需要将消息分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>到事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>需要在不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮询队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>列的情况下接收消息。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>列提供基于角色的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>模型。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>理大于 64 KB 但小于 256 KB 的消息。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>列大小不会增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>到超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 80 GB。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>希望能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>够发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>布并使用成批消息。</t>
+    </r>
+  </si>
+  <si>
+    <t>如果为以下情况，请选择队列存储：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>需要通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>列的所有消息的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>审</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>索。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>预</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>列大小会超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 80GB。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>需要跟踪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>列内部的消息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>度。</t>
+    </r>
+  </si>
+  <si>
+    <t>什么是 Azure 事件网格？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Azure 事件网格是在 Azure Service Fabric 顶层运行的完全托管式事件路由服务。 事件网格可将事件从 Azure Blob 存储帐户或 Azure 媒体服务等不同源分发给不同处理程序（例如 Azure Functions 或 Webhook）。 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>创建事件网格的目的是为了更方便地在 Azure 中生成基于事件的应用程序和无服务器应用程序。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>什么是 Azure 事件中心？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事件中心是发布订阅通信模式的中介。 但是，与事件网格不同，它针对极高的吞吐量、大量的发布者、安全性以及复原能力进行优化。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用 Azure 服务总线实现基于消息的通信工作流</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用 Azure 队列存储在应用程序之间通信</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用 Azure 事件中心为大数据应用程序启用可靠消息传递</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用事件中心连接发送和接收应用程序，这样就可以处理高负载且不会丢失数据。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Azure 事件中心可以接收和处理大量事务。 根据需要，它还可以配置为动态扩展，以处理增加的吞吐量。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Azure 事件中心是一种基于云的事件处理服务，每秒能够接收和处理数百万个事件。 事件中心充当事件管道的“前门”，接收传入的数据并存储该数据，直到处理资源可用为止。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事件是包含通知的小型信息包（数据报）。 事件可以单独发布，也可批量发布，但一次发布（单独或批量）不能超过 1 MB。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事件发布者是可以使用 HTTPS 或高级消息队列协议 (AMQP) 1.0 发送事件的任何应用程序或设备。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事件订阅者是使用受支持的两种编程方法之一来从事件中心接收和处理事件的应用程序。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EventHubReceiver - 一种提供有限管理选项的简单方法。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EventProcessorHost - 我们稍后将在本模块中使用的高效方法。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Azure 事件中心有三个定价层：基本、标准和专用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>创建和配置新的 Azure 事件中心时，有两个主要步骤。 第一步是定义事件中心命名空间。 第二步是在该命名空间中创建事件中心。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用 Azure 门户评估已部署事件中心的性能</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用事件中心时，必须监视该中心，确保其按预期运行。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Azure 事件中心为大数据应用程序提供了处理大量数据的功能。 它还能够根据需要在特别高需求时段进行横向扩展。 Azure 事件中心将消息发送和接收分离开来，以管理数据处理。 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>这有助于消除过多使用者应用程序和数据因计划外中断而丢失的风险。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用事件网格对 Azure 服务中的状态更改做出响应</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通过使用事件网格处理 Azure 事件来构建无服务器应用程序体系结构、自动执行操作，以及集成应用程序。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>什么是事件网格？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事件网格聚合所有事件，并提供从任意源到任何目标的路由。 事件网格是一项服务，用于管理来自多个源和订阅服务器的事件的路由和发送。 此过程无需进行轮询，从而使成本和延迟达到了最小化。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事件发布服务器和订阅服务器通过使用发布者/订阅者模式进行解耦。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用 Azure 事件网格的一种简单方法是将其包含在逻辑应用中。。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>假设你已选择使用事件网格在重新配置虚拟机时向管理员发出警报。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>接下来，你需设置虚拟机，并使用事件网格触发器创建逻辑应用，该触发器可响应虚拟机生成的事件</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -318,7 +1062,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +1106,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="FangSong"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -383,12 +1142,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -718,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.25"/>
@@ -1019,9 +1784,118 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="15.65" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B107" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B108" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B109" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="C112" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B114" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="C116" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="C117" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="C118" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C119" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="C120" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B121" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="C122" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="C123" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="C124" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="C125" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="C126" s="2"/>
+    </row>
+    <row r="129" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B129" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="16.3" x14ac:dyDescent="0.35">
+      <c r="A133" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1030,4 +1904,307 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5336BF5-CB9C-4C01-B70F-6C2B8441A159}">
+  <dimension ref="A1:C98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B50" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B51" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B54" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16.3" x14ac:dyDescent="0.35">
+      <c r="A59" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16.3" x14ac:dyDescent="0.35">
+      <c r="A61" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="16.3" x14ac:dyDescent="0.35">
+      <c r="A63" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B64" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A65" s="8"/>
+    </row>
+    <row r="66" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B66" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B68" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B69" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B71" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B72" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="C73" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="C74" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B76" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B78" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B81" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="C82" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B84" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B85" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.3" x14ac:dyDescent="0.35">
+      <c r="A88" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B89" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B91" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="C92" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="C93" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B96" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B97" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B98" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>